--- a/xlsx/洛杉磯_intext.xlsx
+++ b/xlsx/洛杉磯_intext.xlsx
@@ -29,7 +29,7 @@
     <t>加利福尼亚州市镇列表</t>
   </si>
   <si>
-    <t>政策_政策_美國_洛杉磯</t>
+    <t>体育运动_体育运动_奥林匹克运动会_洛杉磯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%B8%82%E4%B8%AD%E5%BF%83</t>
@@ -4047,7 +4047,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -4598,7 +4598,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
@@ -19040,7 +19040,7 @@
         <v>1002</v>
       </c>
       <c r="G519" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H519" t="s">
         <v>4</v>
